--- a/results_data.xlsx
+++ b/results_data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\cs325\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="12220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="12225" tabRatio="500" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="4" r:id="rId1"/>
@@ -14,8 +19,12 @@
     <sheet name="results_form2.csv" sheetId="2" r:id="rId5"/>
     <sheet name="results_form3.csv" sheetId="3" r:id="rId6"/>
     <sheet name="results_form4.csv" sheetId="5" r:id="rId7"/>
+    <sheet name="log-log" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t>Formula Used:</t>
   </si>
@@ -152,6 +161,27 @@
   <si>
     <t>~3,217,156,308</t>
   </si>
+  <si>
+    <t>Algorithm 1</t>
+  </si>
+  <si>
+    <t>Algorithm 2</t>
+  </si>
+  <si>
+    <t>Algorithm 3</t>
+  </si>
+  <si>
+    <t>Algorithm 4</t>
+  </si>
+  <si>
+    <t>runtime</t>
+  </si>
+  <si>
+    <t>log n</t>
+  </si>
+  <si>
+    <t>log runtime</t>
+  </si>
 </sst>
 </file>
 
@@ -226,10 +256,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -248,11 +278,42 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -354,7 +415,7 @@
             <c:numRef>
               <c:f>'results_form1.csv'!$L$3:$L$12</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4.503726959228511E-5</c:v>
@@ -505,11 +566,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="644063232"/>
-        <c:axId val="644063808"/>
+        <c:axId val="194413648"/>
+        <c:axId val="194413256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="644063232"/>
+        <c:axId val="194413648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -543,12 +604,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="644063808"/>
+        <c:crossAx val="194413256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="644063808"/>
+        <c:axId val="194413256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -574,11 +635,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="644063232"/>
+        <c:crossAx val="194413648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -595,6 +656,1715 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Algorithm 4: Linear</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>-time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12934426946631672"/>
+                  <c:y val="-4.1666666666666669E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'results_form4.csv'!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'results_form4.csv'!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.8696784973144489E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.143907546997064E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.037499427795405E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1240196228027309E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2422971725463843E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6190690994262511E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1870455741882269E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.34243249893188E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5172910690307569E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6787362098693789E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="190941064"/>
+        <c:axId val="284081600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="190941064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="284081600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="284081600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> runtime (seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190941064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Log-Log Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.4563567885310021E-2"/>
+          <c:y val="0.1489558232931727"/>
+          <c:w val="0.87648031079551902"/>
+          <c:h val="0.61147171362615815"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Algorithm 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3225085530403932E-3"/>
+                  <c:y val="-6.4888530499952565E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" baseline="0"/>
+                      <a:t>y = 2.4009x - 6.8801</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1000" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" baseline="0"/>
+                      <a:t>R² = 0.995</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'log-log'!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7781512503836434</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8450980400142569</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9030899869919438</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9542425094393248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'log-log'!$B$15:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-4.3464279466857532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.1981637529076488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.4949216281713888</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.0359417687420662</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.68613575728137299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.40656940978209744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.18919808907519234</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3422624926819199E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17756371494782433</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32947594297023741</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Algorithm 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11446248860639052"/>
+                  <c:y val="-9.2046295417892041E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" baseline="0"/>
+                      <a:t>y = 1.964x - 6.9943</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1000" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" baseline="0"/>
+                      <a:t>R² = 0.9999</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'log-log'!$C$15:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1760912590556813</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3979400086720375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5440680443502757</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6532125137753435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'log-log'!$D$15:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-3.6477799316006569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.6924681118829383</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.1220138982084109</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.77262695362306999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.5124167581476311</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.32625506197833315</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.15518694704189526</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.7293296035645523E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.7798666658126689E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18939892926110297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Algorithm 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10989697550208712"/>
+                  <c:y val="-8.0787401574803144E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" baseline="0"/>
+                      <a:t>y = 1.0232x - 5.3982</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1000" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" baseline="0"/>
+                      <a:t>R² = 0.9998</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'log-log'!$E$15:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7781512503836439</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8450980400142569</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9030899869919438</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9542425094393252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'log-log'!$F$15:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-2.3368731327211711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.294279485593123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.98186443821071323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.8183722102200659</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.6965910364514144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.59015851581492729</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.51626642918522425</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.44040070719602503</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.3824516114586744</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.33067544084776601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Algorithm 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16004688441330187"/>
+                  <c:y val="-5.2944059703380453E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'log-log'!$G$15:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7781512503836439</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8450980400142569</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9030899869919438</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9542425094393252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'log-log'!$H$15:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-3.7282330666433992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.6687939469152488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.3938875262101451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.2129634263896336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.0839517312248703</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.0168669554616057</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.9255326068764864</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.8721075425583296</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.8189310984827116</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.7750175418599263</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="359374832"/>
+        <c:axId val="354361840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="359374832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Log of n value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46480140824927374"/>
+              <c:y val="0.83351294943553744"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="354361840"/>
+        <c:crossesAt val="-5"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="354361840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Log of runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="359374832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.7044616593559294E-2"/>
+          <c:y val="0.89056130031938774"/>
+          <c:w val="0.97463231841432207"/>
+          <c:h val="8.5342314138443537E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -842,11 +2612,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="644065536"/>
-        <c:axId val="644066112"/>
+        <c:axId val="194412472"/>
+        <c:axId val="194411296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="644065536"/>
+        <c:axId val="194412472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,12 +2645,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="644066112"/>
+        <c:crossAx val="194411296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="644066112"/>
+        <c:axId val="194411296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -910,7 +2680,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="644065536"/>
+        <c:crossAx val="194412472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1174,11 +2944,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="644067840"/>
-        <c:axId val="644068416"/>
+        <c:axId val="284049304"/>
+        <c:axId val="284049696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="644067840"/>
+        <c:axId val="284049304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1207,12 +2977,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="644068416"/>
+        <c:crossAx val="284049696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="644068416"/>
+        <c:axId val="284049696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,7 +3012,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="644067840"/>
+        <c:crossAx val="284049304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1527,11 +3297,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="644070144"/>
-        <c:axId val="644070720"/>
+        <c:axId val="284050480"/>
+        <c:axId val="284050872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="644070144"/>
+        <c:axId val="284050480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1560,12 +3330,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="644070720"/>
+        <c:crossAx val="284050872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="644070720"/>
+        <c:axId val="284050872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1595,7 +3365,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="644070144"/>
+        <c:crossAx val="284050480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1652,7 +3422,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2273,11 +4042,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="645637824"/>
-        <c:axId val="645638400"/>
+        <c:axId val="284079640"/>
+        <c:axId val="284080032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="645637824"/>
+        <c:axId val="284079640"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2301,19 +4070,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="645638400"/>
+        <c:crossAx val="284080032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="645638400"/>
+        <c:axId val="284080032"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2351,21 +4119,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="645637824"/>
+        <c:crossAx val="284079640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2415,7 +4181,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3036,11 +4801,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="41131328"/>
-        <c:axId val="42622272"/>
+        <c:axId val="284082384"/>
+        <c:axId val="284082776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41131328"/>
+        <c:axId val="284082384"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3064,19 +4829,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="42622272"/>
+        <c:crossAx val="284082776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42622272"/>
+        <c:axId val="284082776"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3114,21 +4878,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41131328"/>
+        <c:crossAx val="284082384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3141,6 +4903,4386 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Algorithm 1: Enumeration</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'results_form1.csv'!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'results_form1.csv'!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.503726959228511E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3363075256347556E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.199472427368158E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2057299613952592E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20599858760833678</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39213047027587838</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64684751033782906</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0313893079757641</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5050943136215169</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1353837966918876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="347346104"/>
+        <c:axId val="347348064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="347346104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="347348064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="347348064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="347346104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Algorithm 2: Better Enumeration</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'results_form2.csv'!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'results_form2.csv'!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.2501945495605416E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0301675796508739E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5506806373596136E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16880023479461601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30731463432311984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47178587913513137</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6995408058166499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93908889293670617</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.224048614501948</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5466745138168272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="354356352"/>
+        <c:axId val="354355960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="354356352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="354355960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="354355960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average runtime (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="354356352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Algorithm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 3: Divide and Conquer</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11131649168853894"/>
+                  <c:y val="4.2129629629629626E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                      <a:t>y = 5E-06x - 0.0022</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                      <a:t>R² = 0.9997</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'results_form3.csv'!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'results_form3.csv'!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.6039104461669872E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0783252716064396E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10426428318023631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1519244909286494</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20109856128692583</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25694577693939158</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30460257530212348</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36274321079254096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41452276706695501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46700825691223108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="353409304"/>
+        <c:axId val="353408128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="353409304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353408128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="353408128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average runtime (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353409304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3384,6 +9526,36 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3431,6 +9603,36 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3482,6 +9684,36 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3528,6 +9760,71 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>671512</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3860,11 +10157,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showRuler="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3883,42 +10180,42 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>30</v>
@@ -3927,7 +10224,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>31</v>
@@ -3936,16 +10233,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>33</v>
@@ -3954,12 +10251,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -3973,37 +10270,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="26.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4032,7 +10328,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -4043,7 +10339,7 @@
         <v>4.2601575680676984E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50</v>
       </c>
@@ -4054,7 +10350,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -4065,7 +10361,7 @@
         <v>7.7220862718153319E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>200</v>
       </c>
@@ -4076,7 +10372,7 @@
         <v>3.0507128964560072E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>300</v>
       </c>
@@ -4087,7 +10383,7 @@
         <v>9.0060596478585442E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>400</v>
       </c>
@@ -4098,7 +10394,7 @@
         <v>0.2030744130088154</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>500</v>
       </c>
@@ -4115,7 +10411,7 @@
         <v>1.8158361318473811E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>600</v>
       </c>
@@ -4126,7 +10422,7 @@
         <v>0.65411504887234029</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>700</v>
       </c>
@@ -4137,7 +10433,7 @@
         <v>1.0237172977079296</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>800</v>
       </c>
@@ -4148,7 +10444,7 @@
         <v>1.51004881389037</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>900</v>
       </c>
@@ -4159,7 +10455,7 @@
         <v>2.1283891575387721</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1000</v>
       </c>
@@ -4182,7 +10478,7 @@
         <v>5.3510000000000005E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1500</v>
       </c>
@@ -4193,7 +10489,7 @@
         <v>0.17283008479370188</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2000</v>
       </c>
@@ -4204,7 +10500,7 @@
         <v>0.30753525887508848</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2500</v>
       </c>
@@ -4215,7 +10511,7 @@
         <v>0.48033841455597864</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3000</v>
       </c>
@@ -4226,7 +10522,7 @@
         <v>0.69116245562887857</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3500</v>
       </c>
@@ -4237,7 +10533,7 @@
         <v>0.93994468904962436</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4000</v>
       </c>
@@ -4248,7 +10544,7 @@
         <v>1.2266322763281039</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4500</v>
       </c>
@@ -4259,7 +10555,7 @@
         <v>1.5511795527918115</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10000</v>
       </c>
@@ -4276,7 +10572,7 @@
         <v>2.2136E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20000</v>
       </c>
@@ -4293,7 +10589,7 @@
         <v>4.0785999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>30000</v>
       </c>
@@ -4310,7 +10606,7 @@
         <v>5.9436000000000003E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>40000</v>
       </c>
@@ -4327,7 +10623,7 @@
         <v>7.8086000000000006E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>50000</v>
       </c>
@@ -4344,7 +10640,7 @@
         <v>9.6735999999999992E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>60000</v>
       </c>
@@ -4361,7 +10657,7 @@
         <v>1.15386E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>70000</v>
       </c>
@@ -4378,7 +10674,7 @@
         <v>1.34036E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>80000</v>
       </c>
@@ -4395,7 +10691,7 @@
         <v>1.52686E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>90000</v>
       </c>
@@ -4425,18 +10721,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9:P12"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="12.5" customWidth="1"/>
-    <col min="13" max="13" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4447,7 +10743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4494,7 +10790,7 @@
         <v>4.9870000000000003E-9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -4528,7 +10824,7 @@
       <c r="K3" s="2">
         <v>4.4107437133789002E-5</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="2">
         <f t="shared" ref="L3:L12" si="0">AVERAGE(B3:K3)</f>
         <v>4.503726959228511E-5</v>
       </c>
@@ -4543,7 +10839,7 @@
         <v>2.9209999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100</v>
       </c>
@@ -4577,7 +10873,7 @@
       <c r="K4" s="2">
         <v>6.1089992523193299E-3</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="2">
         <f t="shared" si="0"/>
         <v>6.3363075256347556E-3</v>
       </c>
@@ -4592,7 +10888,7 @@
         <v>4.2560000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>200</v>
       </c>
@@ -4626,16 +10922,16 @@
       <c r="K5" s="2">
         <v>3.3333063125610303E-2</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2">
         <f t="shared" si="0"/>
         <v>3.199472427368158E-2</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M4:M12" si="1">(($O$2)*(A5^$O$3))+$O$4</f>
+        <f t="shared" ref="M5:M12" si="1">(($O$2)*(A5^$O$3))+$O$4</f>
         <v>3.0507128964560072E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>300</v>
       </c>
@@ -4669,7 +10965,7 @@
       <c r="K6" s="2">
         <v>9.4990015029907199E-2</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <f t="shared" si="0"/>
         <v>9.2057299613952592E-2</v>
       </c>
@@ -4678,7 +10974,7 @@
         <v>9.0060596478585442E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>400</v>
       </c>
@@ -4712,7 +11008,7 @@
       <c r="K7" s="2">
         <v>0.20076179504394501</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="2">
         <f t="shared" si="0"/>
         <v>0.20599858760833678</v>
       </c>
@@ -4721,7 +11017,7 @@
         <v>0.2030744130088154</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>500</v>
       </c>
@@ -4755,7 +11051,7 @@
       <c r="K8" s="2">
         <v>0.41809201240539501</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
         <f t="shared" si="0"/>
         <v>0.39213047027587838</v>
       </c>
@@ -4764,7 +11060,7 @@
         <v>0.38578780826525155</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>600</v>
       </c>
@@ -4798,7 +11094,7 @@
       <c r="K9" s="2">
         <v>0.64148807525634699</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="2">
         <f t="shared" si="0"/>
         <v>0.64684751033782906</v>
       </c>
@@ -4810,7 +11106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>700</v>
       </c>
@@ -4844,7 +11140,7 @@
       <c r="K10" s="2">
         <v>1.00565505027771</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="2">
         <f t="shared" si="0"/>
         <v>1.0313893079757641</v>
       </c>
@@ -4859,7 +11155,7 @@
         <v>6213.3332669384436</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>800</v>
       </c>
@@ -4893,7 +11189,7 @@
       <c r="K11" s="2">
         <v>1.4784970283508301</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="2">
         <f t="shared" si="0"/>
         <v>1.5050943136215169</v>
       </c>
@@ -4909,7 +11205,7 @@
         <v>599.98963461991445</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>900</v>
       </c>
@@ -4943,7 +11239,7 @@
       <c r="K12" s="2">
         <v>2.1308789253234801</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="2">
         <f t="shared" si="0"/>
         <v>2.1353837966918876</v>
       </c>
@@ -4962,8 +11258,8 @@
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4976,13 +11272,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O11" activeCellId="1" sqref="O11 O11"/>
+    <sheetView showRuler="0" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="L3" activeCellId="1" sqref="A3:A12 L3:L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4993,7 +11289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5040,7 +11336,7 @@
         <v>8.2700000000000006E-8</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50</v>
       </c>
@@ -5089,7 +11385,7 @@
         <v>1.9910000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>500</v>
       </c>
@@ -5138,7 +11434,7 @@
         <v>-1.392E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -5181,7 +11477,7 @@
         <v>7.6323117783695563E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -5224,7 +11520,7 @@
         <v>0.17283008479370188</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -5267,7 +11563,7 @@
         <v>0.30753525887508848</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2500</v>
       </c>
@@ -5310,7 +11606,7 @@
         <v>0.48033841455597864</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3000</v>
       </c>
@@ -5356,7 +11652,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3500</v>
       </c>
@@ -5405,7 +11701,7 @@
         <v>89662.039392427963</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4000</v>
       </c>
@@ -5455,7 +11751,7 @@
         <v>599.99585495920667</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4500</v>
       </c>
@@ -5521,13 +11817,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView showRuler="0" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5538,7 +11834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5585,7 +11881,7 @@
         <v>3.1129999999999999E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -5634,7 +11930,7 @@
         <v>9.8849999999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -5678,7 +11974,7 @@
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20000</v>
       </c>
@@ -5721,7 +12017,7 @@
         <v>9.8840297275074873E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30000</v>
       </c>
@@ -5764,7 +12060,7 @@
         <v>0.14878091070684721</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>40000</v>
       </c>
@@ -5807,7 +12103,7 @@
         <v>0.20024759455014973</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50000</v>
       </c>
@@ -5850,7 +12146,7 @@
         <v>0.25284905398460894</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60000</v>
       </c>
@@ -5896,7 +12192,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>70000</v>
       </c>
@@ -5945,7 +12241,7 @@
         <v>73739741.641472831</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>80000</v>
       </c>
@@ -5995,7 +12291,7 @@
         <v>599.96511092124774</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>90000</v>
       </c>
@@ -6061,13 +12357,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P10" activeCellId="1" sqref="P10 P10"/>
+    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6078,7 +12374,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6125,7 +12421,7 @@
         <v>1.8650000000000001E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -6174,7 +12470,7 @@
         <v>3.4860000000000002E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -6217,7 +12513,7 @@
         <v>2.2136E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20000</v>
       </c>
@@ -6260,7 +12556,7 @@
         <v>4.0785999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30000</v>
       </c>
@@ -6303,7 +12599,7 @@
         <v>5.9436000000000003E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>40000</v>
       </c>
@@ -6346,7 +12642,7 @@
         <v>7.8086000000000006E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50000</v>
       </c>
@@ -6389,7 +12685,7 @@
         <v>9.6735999999999992E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60000</v>
       </c>
@@ -6435,7 +12731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>70000</v>
       </c>
@@ -6484,7 +12780,7 @@
         <v>3217156307.7747989</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>80000</v>
       </c>
@@ -6534,7 +12830,7 @@
         <v>600.00000000000011</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>90000</v>
       </c>
@@ -6593,4 +12889,770 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>results_form1.csv!A3</f>
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <f>results_form1.csv!L3</f>
+        <v>4.503726959228511E-5</v>
+      </c>
+      <c r="C3">
+        <f>results_form2.csv!A3</f>
+        <v>50</v>
+      </c>
+      <c r="D3" s="2">
+        <f>results_form2.csv!L3</f>
+        <v>2.2501945495605416E-4</v>
+      </c>
+      <c r="E3">
+        <f>results_form3.csv!A3</f>
+        <v>1000</v>
+      </c>
+      <c r="F3" s="2">
+        <f>results_form3.csv!L3</f>
+        <v>4.6039104461669872E-3</v>
+      </c>
+      <c r="G3">
+        <f>results_form4.csv!A3</f>
+        <v>1000</v>
+      </c>
+      <c r="H3" s="2">
+        <f>results_form4.csv!L3</f>
+        <v>1.8696784973144489E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>results_form1.csv!A4</f>
+        <v>100</v>
+      </c>
+      <c r="B4" s="2">
+        <f>results_form1.csv!L4</f>
+        <v>6.3363075256347556E-3</v>
+      </c>
+      <c r="C4">
+        <f>results_form2.csv!A4</f>
+        <v>500</v>
+      </c>
+      <c r="D4" s="2">
+        <f>results_form2.csv!L4</f>
+        <v>2.0301675796508739E-2</v>
+      </c>
+      <c r="E4">
+        <f>results_form3.csv!A4</f>
+        <v>10000</v>
+      </c>
+      <c r="F4" s="2">
+        <f>results_form3.csv!L4</f>
+        <v>5.0783252716064396E-2</v>
+      </c>
+      <c r="G4">
+        <f>results_form4.csv!A4</f>
+        <v>10000</v>
+      </c>
+      <c r="H4" s="2">
+        <f>results_form4.csv!L4</f>
+        <v>2.143907546997064E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>results_form1.csv!A5</f>
+        <v>200</v>
+      </c>
+      <c r="B5" s="2">
+        <f>results_form1.csv!L5</f>
+        <v>3.199472427368158E-2</v>
+      </c>
+      <c r="C5">
+        <f>results_form2.csv!A5</f>
+        <v>1000</v>
+      </c>
+      <c r="D5" s="2">
+        <f>results_form2.csv!L5</f>
+        <v>7.5506806373596136E-2</v>
+      </c>
+      <c r="E5">
+        <f>results_form3.csv!A5</f>
+        <v>20000</v>
+      </c>
+      <c r="F5" s="2">
+        <f>results_form3.csv!L5</f>
+        <v>0.10426428318023631</v>
+      </c>
+      <c r="G5">
+        <f>results_form4.csv!A5</f>
+        <v>20000</v>
+      </c>
+      <c r="H5" s="2">
+        <f>results_form4.csv!L5</f>
+        <v>4.037499427795405E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>results_form1.csv!A6</f>
+        <v>300</v>
+      </c>
+      <c r="B6" s="2">
+        <f>results_form1.csv!L6</f>
+        <v>9.2057299613952592E-2</v>
+      </c>
+      <c r="C6">
+        <f>results_form2.csv!A6</f>
+        <v>1500</v>
+      </c>
+      <c r="D6" s="2">
+        <f>results_form2.csv!L6</f>
+        <v>0.16880023479461601</v>
+      </c>
+      <c r="E6">
+        <f>results_form3.csv!A6</f>
+        <v>30000</v>
+      </c>
+      <c r="F6" s="2">
+        <f>results_form3.csv!L6</f>
+        <v>0.1519244909286494</v>
+      </c>
+      <c r="G6">
+        <f>results_form4.csv!A6</f>
+        <v>30000</v>
+      </c>
+      <c r="H6" s="2">
+        <f>results_form4.csv!L6</f>
+        <v>6.1240196228027309E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>results_form1.csv!A7</f>
+        <v>400</v>
+      </c>
+      <c r="B7" s="2">
+        <f>results_form1.csv!L7</f>
+        <v>0.20599858760833678</v>
+      </c>
+      <c r="C7">
+        <f>results_form2.csv!A7</f>
+        <v>2000</v>
+      </c>
+      <c r="D7" s="2">
+        <f>results_form2.csv!L7</f>
+        <v>0.30731463432311984</v>
+      </c>
+      <c r="E7">
+        <f>results_form3.csv!A7</f>
+        <v>40000</v>
+      </c>
+      <c r="F7" s="2">
+        <f>results_form3.csv!L7</f>
+        <v>0.20109856128692583</v>
+      </c>
+      <c r="G7">
+        <f>results_form4.csv!A7</f>
+        <v>40000</v>
+      </c>
+      <c r="H7" s="2">
+        <f>results_form4.csv!L7</f>
+        <v>8.2422971725463843E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>results_form1.csv!A8</f>
+        <v>500</v>
+      </c>
+      <c r="B8" s="2">
+        <f>results_form1.csv!L8</f>
+        <v>0.39213047027587838</v>
+      </c>
+      <c r="C8">
+        <f>results_form2.csv!A8</f>
+        <v>2500</v>
+      </c>
+      <c r="D8" s="2">
+        <f>results_form2.csv!L8</f>
+        <v>0.47178587913513137</v>
+      </c>
+      <c r="E8">
+        <f>results_form3.csv!A8</f>
+        <v>50000</v>
+      </c>
+      <c r="F8" s="2">
+        <f>results_form3.csv!L8</f>
+        <v>0.25694577693939158</v>
+      </c>
+      <c r="G8">
+        <f>results_form4.csv!A8</f>
+        <v>50000</v>
+      </c>
+      <c r="H8" s="2">
+        <f>results_form4.csv!L8</f>
+        <v>9.6190690994262511E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>results_form1.csv!A9</f>
+        <v>600</v>
+      </c>
+      <c r="B9" s="2">
+        <f>results_form1.csv!L9</f>
+        <v>0.64684751033782906</v>
+      </c>
+      <c r="C9">
+        <f>results_form2.csv!A9</f>
+        <v>3000</v>
+      </c>
+      <c r="D9" s="2">
+        <f>results_form2.csv!L9</f>
+        <v>0.6995408058166499</v>
+      </c>
+      <c r="E9">
+        <f>results_form3.csv!A9</f>
+        <v>60000</v>
+      </c>
+      <c r="F9" s="2">
+        <f>results_form3.csv!L9</f>
+        <v>0.30460257530212348</v>
+      </c>
+      <c r="G9">
+        <f>results_form4.csv!A9</f>
+        <v>60000</v>
+      </c>
+      <c r="H9" s="2">
+        <f>results_form4.csv!L9</f>
+        <v>1.1870455741882269E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>results_form1.csv!A10</f>
+        <v>700</v>
+      </c>
+      <c r="B10" s="2">
+        <f>results_form1.csv!L10</f>
+        <v>1.0313893079757641</v>
+      </c>
+      <c r="C10">
+        <f>results_form2.csv!A10</f>
+        <v>3500</v>
+      </c>
+      <c r="D10" s="2">
+        <f>results_form2.csv!L10</f>
+        <v>0.93908889293670617</v>
+      </c>
+      <c r="E10">
+        <f>results_form3.csv!A10</f>
+        <v>70000</v>
+      </c>
+      <c r="F10" s="2">
+        <f>results_form3.csv!L10</f>
+        <v>0.36274321079254096</v>
+      </c>
+      <c r="G10">
+        <f>results_form4.csv!A10</f>
+        <v>70000</v>
+      </c>
+      <c r="H10" s="2">
+        <f>results_form4.csv!L10</f>
+        <v>1.34243249893188E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>results_form1.csv!A11</f>
+        <v>800</v>
+      </c>
+      <c r="B11" s="2">
+        <f>results_form1.csv!L11</f>
+        <v>1.5050943136215169</v>
+      </c>
+      <c r="C11">
+        <f>results_form2.csv!A11</f>
+        <v>4000</v>
+      </c>
+      <c r="D11" s="2">
+        <f>results_form2.csv!L11</f>
+        <v>1.224048614501948</v>
+      </c>
+      <c r="E11">
+        <f>results_form3.csv!A11</f>
+        <v>80000</v>
+      </c>
+      <c r="F11" s="2">
+        <f>results_form3.csv!L11</f>
+        <v>0.41452276706695501</v>
+      </c>
+      <c r="G11">
+        <f>results_form4.csv!A11</f>
+        <v>80000</v>
+      </c>
+      <c r="H11" s="2">
+        <f>results_form4.csv!L11</f>
+        <v>1.5172910690307569E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>results_form1.csv!A12</f>
+        <v>900</v>
+      </c>
+      <c r="B12" s="2">
+        <f>results_form1.csv!L12</f>
+        <v>2.1353837966918876</v>
+      </c>
+      <c r="C12">
+        <f>results_form2.csv!A12</f>
+        <v>4500</v>
+      </c>
+      <c r="D12" s="2">
+        <f>results_form2.csv!L12</f>
+        <v>1.5466745138168272</v>
+      </c>
+      <c r="E12">
+        <f>results_form3.csv!A12</f>
+        <v>90000</v>
+      </c>
+      <c r="F12" s="2">
+        <f>results_form3.csv!L12</f>
+        <v>0.46700825691223108</v>
+      </c>
+      <c r="G12">
+        <f>results_form4.csv!A12</f>
+        <v>90000</v>
+      </c>
+      <c r="H12" s="2">
+        <f>results_form4.csv!L12</f>
+        <v>1.6787362098693789E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>LOG10(A3)</f>
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:H15" si="0">LOG10(B3)</f>
+        <v>-4.3464279466857532</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1.6989700043360187</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-3.6477799316006569</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>-2.3368731327211711</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>-3.7282330666433992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" ref="A16:H24" si="1">LOG10(A4)</f>
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>-2.1981637529076488</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>2.6989700043360187</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>-1.6924681118829383</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>-1.294279485593123</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>-2.6687939469152488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>2.3010299956639813</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>-1.4949216281713888</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>-1.1220138982084109</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>4.3010299956639813</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>-0.98186443821071323</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>4.3010299956639813</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>-2.3938875262101451</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>2.4771212547196626</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>-1.0359417687420662</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>3.1760912590556813</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>-0.77262695362306999</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>4.4771212547196626</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>-0.8183722102200659</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>4.4771212547196626</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>-2.2129634263896336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>2.6020599913279625</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>-0.68613575728137299</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>3.3010299956639813</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>-0.5124167581476311</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>4.6020599913279625</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>-0.6965910364514144</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>4.6020599913279625</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>-2.0839517312248703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>2.6989700043360187</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>-0.40656940978209744</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>3.3979400086720375</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>-0.32625506197833315</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>4.6989700043360187</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>-0.59015851581492729</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>4.6989700043360187</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>-2.0168669554616057</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>2.7781512503836434</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>-0.18919808907519234</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>3.4771212547196626</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>-0.15518694704189526</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>4.7781512503836439</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>-0.51626642918522425</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>4.7781512503836439</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>-1.9255326068764864</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>2.8450980400142569</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>1.3422624926819199E-2</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>3.5440680443502757</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>-2.7293296035645523E-2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>4.8450980400142569</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>-0.44040070719602503</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>4.8450980400142569</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>-1.8721075425583296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>2.9030899869919438</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>0.17756371494782433</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>3.6020599913279625</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>8.7798666658126689E-2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>4.9030899869919438</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>-0.3824516114586744</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>4.9030899869919438</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>-1.8189310984827116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>2.9542425094393248</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>0.32947594297023741</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>3.6532125137753435</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0.18939892926110297</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>4.9542425094393252</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>-0.33067544084776601</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>4.9542425094393252</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>-1.7750175418599263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>